--- a/01.doc/03.个人日报/个人日报 _朱登基.xlsx
+++ b/01.doc/03.个人日报/个人日报 _朱登基.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhu Dengji\Desktop\邮件系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhu Dengji\github\Mail\01.doc\03.个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="8-29" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="8-31" sheetId="4" r:id="rId3"/>
     <sheet name="9-1" sheetId="5" r:id="rId4"/>
     <sheet name="9-2" sheetId="6" r:id="rId5"/>
+    <sheet name="9-3" sheetId="7" r:id="rId6"/>
+    <sheet name="9-4" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="5">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="5">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="6">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="5">#REF!</definedName>
+    <definedName name="模块" localSheetId="6">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -415,15 +425,15 @@
   </si>
   <si>
     <t>对数据库的概要设计部分理解不是很透彻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>询问同学，和组内人员讨论</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>完成邮件管理模块的需求矩阵</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>学习数据库的基本命令以及MySQL workbench的操作</t>
@@ -453,7 +463,7 @@
   </si>
   <si>
     <t>小组讨论项目进程及编码任务的分工</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -461,11 +471,11 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>负责邮箱页面的搭建和功能的完善</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>数据库表的设计</t>
@@ -477,11 +487,11 @@
   </si>
   <si>
     <t>重新分工，分配每人的具体工作</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小组内的分工不太合理</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>学习git并上传个人日报</t>
@@ -497,6 +507,73 @@
   </si>
   <si>
     <t>由于事先没有和组内成员沟通好，导致第一次写数据库设计时和其他人的设计文档有很大差距，只能重写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写登录注册页面及功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了登录注册的UI界面和功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作小组logo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于前期需求不是很完善，导致界面功能不全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库表的设计，学会了划E-R图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用processon制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求矩阵，并在登录注册界面加入一定的限制</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整合9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/3日写的代码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动整合，效率低且出现很多问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写信界面功能的实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将收件人、主题、正文传入邮箱存储表时遇到较多问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内写的代码要及时整合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在整合时由于变量名、文件的命名不同需要修改多处才能运行程序</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -733,11 +810,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -772,6 +844,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1436,7 +1521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,7 +1649,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1594,16 +1679,118 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1627,162 +1814,79 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2185,6 +2289,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8677275" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8677275" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2494,17 +2744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -2561,46 +2811,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="52">
         <v>43341</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="58">
         <v>43341</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -2619,19 +2869,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="22" t="s">
         <v>9</v>
       </c>
@@ -2640,19 +2890,19 @@
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="36">
         <v>2.5</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="35" t="s">
         <v>25</v>
       </c>
@@ -2661,19 +2911,19 @@
       <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="36">
         <v>2.5</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="35" t="s">
         <v>26</v>
       </c>
@@ -2682,19 +2932,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="36">
         <v>0.5</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="35" t="s">
         <v>27</v>
       </c>
@@ -2703,68 +2953,68 @@
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>5.5</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -2784,65 +3034,65 @@
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="27">
         <v>2</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="29" t="s">
@@ -2862,12 +3112,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -2876,22 +3136,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -2930,17 +3180,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -2997,46 +3247,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="52">
         <v>43342</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="58">
         <v>43342</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -3055,19 +3305,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="22" t="s">
         <v>9</v>
       </c>
@@ -3076,15 +3326,15 @@
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="36">
         <v>5</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="68" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="86"/>
@@ -3097,19 +3347,19 @@
       <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="36">
         <v>0.5</v>
       </c>
       <c r="G11" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="35" t="s">
         <v>25</v>
       </c>
@@ -3121,16 +3371,16 @@
       <c r="C12" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="36">
         <v>0.5</v>
       </c>
       <c r="G12" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="35" t="s">
         <v>25</v>
       </c>
@@ -3139,68 +3389,68 @@
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -3220,61 +3470,61 @@
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="27">
         <v>2</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="29" t="s">
@@ -3294,38 +3544,38 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
@@ -3362,17 +3612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -3429,46 +3679,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="52">
         <v>43343</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="58">
         <v>43343</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -3487,19 +3737,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="22" t="s">
         <v>9</v>
       </c>
@@ -3508,15 +3758,15 @@
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="36">
         <v>5</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="68" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="86"/>
@@ -3529,19 +3779,19 @@
       <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="36">
         <v>0.5</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="35" t="s">
         <v>25</v>
       </c>
@@ -3550,81 +3800,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="36"/>
       <c r="G12" s="88"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>5.5</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -3644,65 +3894,65 @@
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="27">
         <v>2</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="85" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="29" t="s">
@@ -3722,38 +3972,38 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
@@ -3790,17 +4040,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -3857,46 +4107,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="52">
         <v>43344</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="58">
         <v>43344</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -3915,19 +4165,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="22" t="s">
         <v>9</v>
       </c>
@@ -3939,8 +4189,8 @@
       <c r="C10" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="36">
         <v>3</v>
       </c>
@@ -3960,16 +4210,16 @@
       <c r="C11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="36">
         <v>2</v>
       </c>
       <c r="G11" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="44" t="s">
         <v>58</v>
       </c>
@@ -3981,16 +4231,16 @@
       <c r="C12" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="36">
         <v>0.5</v>
       </c>
       <c r="G12" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="44" t="s">
         <v>59</v>
       </c>
@@ -3999,68 +4249,68 @@
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>5.5</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -4080,65 +4330,65 @@
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="90" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="27">
         <v>2</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="90" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="29" t="s">
@@ -4158,38 +4408,38 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="43" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
@@ -4206,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4226,17 +4476,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -4293,46 +4543,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="52">
         <v>43345</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="58">
         <v>43345</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -4351,19 +4601,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="22" t="s">
         <v>9</v>
       </c>
@@ -4375,8 +4625,8 @@
       <c r="C10" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="36">
         <v>1</v>
       </c>
@@ -4396,16 +4646,16 @@
       <c r="C11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="36">
         <v>3</v>
       </c>
-      <c r="G11" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="G11" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="45" t="s">
         <v>67</v>
       </c>
@@ -4415,80 +4665,80 @@
         <v>3</v>
       </c>
       <c r="C12" s="91"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="36"/>
       <c r="G12" s="92"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -4508,61 +4758,61 @@
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="93" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="27">
         <v>2</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="29" t="s">
@@ -4582,36 +4832,884 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>43346</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <v>43346</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58">
+        <v>43346</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="46">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="24">
+        <v>4</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="24">
+        <v>5</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="24">
+        <v>7</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="41">
+        <f>SUM(F10:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+    </row>
+    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="26">
+        <v>1</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="27">
+        <v>2</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="28">
+        <v>3</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>43347</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <v>43347</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58">
+        <v>43347</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="24">
+        <v>4</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="24">
+        <v>5</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="24">
+        <v>7</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="41">
+        <f>SUM(F10:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+    </row>
+    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="26">
+        <v>1</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="27">
+        <v>2</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="28">
+        <v>3</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="3">
